--- a/Templates/Planning/Verboom_Planning_Project_Freedom_V2.xlsx
+++ b/Templates/Planning/Verboom_Planning_Project_Freedom_V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeroe\Documents\Projects\Examen portfolio\Losse Bewijzen die ik vast wel kan gebruiken\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5520172-6FF7-4898-8534-3958613DB51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8DCCFEC-DE9D-469D-BF57-9E85CD206FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12756" xr2:uid="{67E08020-2BB4-44A8-BCC5-26A17469E308}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>Planning</t>
   </si>
@@ -186,6 +186,15 @@
   </si>
   <si>
     <t>Eennalaatste dag van sprint</t>
+  </si>
+  <si>
+    <t>Nieuwe user stories maken</t>
+  </si>
+  <si>
+    <t>Eind eerste week sprint</t>
+  </si>
+  <si>
+    <t>4 uur</t>
   </si>
 </sst>
 </file>
@@ -786,10 +795,10 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1050,6 +1059,23 @@
         <v>45</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>5</v>
@@ -1062,6 +1088,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Templates/Planning/Verboom_Planning_Project_Freedom_V2.xlsx
+++ b/Templates/Planning/Verboom_Planning_Project_Freedom_V2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeroe\Documents\Projects\Examen portfolio\Losse Bewijzen die ik vast wel kan gebruiken\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8DCCFEC-DE9D-469D-BF57-9E85CD206FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98308F75-F072-48F9-A8E4-50F6DE6172C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12756" xr2:uid="{67E08020-2BB4-44A8-BCC5-26A17469E308}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="94">
   <si>
     <t>Planning</t>
   </si>
@@ -77,78 +77,33 @@
     <t>8 uur</t>
   </si>
   <si>
-    <t>Business value</t>
-  </si>
-  <si>
-    <t>Controls</t>
-  </si>
-  <si>
-    <t>Meerdere spelers</t>
-  </si>
-  <si>
     <t>5 uur</t>
   </si>
   <si>
-    <t>Hoog | 1e</t>
-  </si>
-  <si>
-    <t>Hoog | 2e</t>
-  </si>
-  <si>
     <t>Gido</t>
   </si>
   <si>
-    <t>Art, Sprites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">? </t>
-  </si>
-  <si>
-    <t>Inspawnen van obstakels</t>
-  </si>
-  <si>
     <t>Thom</t>
   </si>
   <si>
     <t>Map</t>
   </si>
   <si>
-    <t>Medium-Hoog | 1e</t>
-  </si>
-  <si>
-    <t>Medium/Medium-Hoog  | 2e</t>
-  </si>
-  <si>
     <t>Map select</t>
   </si>
   <si>
-    <t>2 uur</t>
-  </si>
-  <si>
     <t>Jeroen</t>
   </si>
   <si>
-    <t xml:space="preserve">Jeroen </t>
-  </si>
-  <si>
     <t>SFX</t>
   </si>
   <si>
     <t>13 uur</t>
   </si>
   <si>
-    <t>Medium/Medium-Hoog  | 1e</t>
-  </si>
-  <si>
     <t>Muziek</t>
   </si>
   <si>
-    <t>Medium-Laag | 2e</t>
-  </si>
-  <si>
-    <t>Goedkeuringen sprint 2</t>
-  </si>
-  <si>
     <t>Jorick Wassink</t>
   </si>
   <si>
@@ -182,26 +137,194 @@
     <t>Eind sprint</t>
   </si>
   <si>
-    <t>Verbetervoorstel</t>
-  </si>
-  <si>
-    <t>Eennalaatste dag van sprint</t>
-  </si>
-  <si>
-    <t>Nieuwe user stories maken</t>
-  </si>
-  <si>
-    <t>Eind eerste week sprint</t>
-  </si>
-  <si>
-    <t>4 uur</t>
+    <t>Movement</t>
+  </si>
+  <si>
+    <t>Wie</t>
+  </si>
+  <si>
+    <t>Wat</t>
+  </si>
+  <si>
+    <t>Belang</t>
+  </si>
+  <si>
+    <t>Meerdere spelers tegelijkertijd</t>
+  </si>
+  <si>
+    <t>Art en Sprites</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Inspawnen van Obstakels</t>
+  </si>
+  <si>
+    <t>3 uur</t>
+  </si>
+  <si>
+    <t>20 uur</t>
+  </si>
+  <si>
+    <t>Gedrag obstakels / enemies</t>
+  </si>
+  <si>
+    <t>Power ups</t>
+  </si>
+  <si>
+    <t>I-Frames</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>Credits</t>
+  </si>
+  <si>
+    <t>Volume settings</t>
+  </si>
+  <si>
+    <t>Stoppen of verdergaan bij winnen</t>
+  </si>
+  <si>
+    <t>Slipstream</t>
+  </si>
+  <si>
+    <t>Health en doodgaan</t>
+  </si>
+  <si>
+    <t>Leaderboard</t>
+  </si>
+  <si>
+    <t>Map checkpoints</t>
+  </si>
+  <si>
+    <t>Debuffs uitdelen</t>
+  </si>
+  <si>
+    <t>Debuff functies</t>
+  </si>
+  <si>
+    <t>Smoke effect</t>
+  </si>
+  <si>
+    <t>Menu's</t>
+  </si>
+  <si>
+    <t>Spelers inspawnen</t>
+  </si>
+  <si>
+    <t>Map design</t>
+  </si>
+  <si>
+    <t>Backlog</t>
+  </si>
+  <si>
+    <t>Wanneer (Indien van toepassing)</t>
+  </si>
+  <si>
+    <t>20 Maart</t>
+  </si>
+  <si>
+    <t>21 Maart</t>
+  </si>
+  <si>
+    <t>Testrapport</t>
+  </si>
+  <si>
+    <t>Testen</t>
+  </si>
+  <si>
+    <t>GDD aanpassen</t>
+  </si>
+  <si>
+    <t>Presentatie maken en presenteren</t>
+  </si>
+  <si>
+    <t>Planning controleren en aanpassen</t>
+  </si>
+  <si>
+    <t>10 Maart</t>
+  </si>
+  <si>
+    <t>Progress?</t>
+  </si>
+  <si>
+    <t>Goedkeuringen</t>
+  </si>
+  <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>❌</t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t>Meenemen?</t>
+  </si>
+  <si>
+    <t>LOG Sprint 2</t>
+  </si>
+  <si>
+    <t>LOG Sprint 3</t>
+  </si>
+  <si>
+    <t>Verbetervoorstel Sprint 2</t>
+  </si>
+  <si>
+    <t>Thuis</t>
+  </si>
+  <si>
+    <t>Testplan voor sprint 3</t>
+  </si>
+  <si>
+    <t>Obstakel art map 1</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>Te laat</t>
+  </si>
+  <si>
+    <t>LOG Sprint 4</t>
+  </si>
+  <si>
+    <t>Verbetervoorstel Sprint 3</t>
+  </si>
+  <si>
+    <t>Functionaliteit obstakels map 1 afmaken en polishen.</t>
+  </si>
+  <si>
+    <t>Movement balancing</t>
+  </si>
+  <si>
+    <t>Gido + Thom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debuff functionaliteiten volgens lijstje afmaken. </t>
+  </si>
+  <si>
+    <t>Thom + Gido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorick </t>
+  </si>
+  <si>
+    <t>Testrapport Sprint 3</t>
+  </si>
+  <si>
+    <t>Testplan Sprint 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +336,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -238,19 +374,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -276,21 +424,21 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>185530</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>272049</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>79514</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>569844</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3756</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{946470EB-1E82-4EE3-B919-298D0F38168B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34ACBC69-0E0F-4435-A16F-C2B7DA7B2CBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -306,8 +454,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10694504" y="742121"/>
-          <a:ext cx="1491249" cy="821635"/>
+          <a:off x="12115800" y="1295400"/>
+          <a:ext cx="569844" cy="939202"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -318,23 +466,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>838201</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>171327</xdr:rowOff>
+      <xdr:rowOff>41418</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{064D1213-2214-8DEF-A867-0B5AB661A778}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9026677A-DC01-3C77-F3D5-D76D42FE56D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -350,8 +498,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12515851" y="762000"/>
-          <a:ext cx="876300" cy="933327"/>
+          <a:off x="10648951" y="1333500"/>
+          <a:ext cx="838200" cy="811038"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -362,23 +510,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>569844</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>24802</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>460895</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>73075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF61058-A565-425C-A2C2-12A843A4D356}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70FA22DC-51B9-D691-02FE-9E17180CA5E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -394,8 +542,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8877300" y="1280160"/>
-          <a:ext cx="569844" cy="939202"/>
+          <a:off x="13341927" y="1260764"/>
+          <a:ext cx="1080655" cy="610862"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -406,23 +554,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>80254</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>155015</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:rowOff>117724</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
+        <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E66C2901-F8C5-40CC-80C5-0F75CF96D58A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C86F82B-E5D1-4BCF-1DD9-FE42C3DA3BFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -438,8 +586,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13144500" y="1280160"/>
-          <a:ext cx="1909054" cy="776343"/>
+          <a:off x="14567648" y="1255059"/>
+          <a:ext cx="1380564" cy="842520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -768,22 +916,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B4B997-E8D5-4037-8CAA-308F6C096C11}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="32.88671875" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -791,7 +942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -802,291 +953,1387 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" t="s">
+      <c r="E19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="1">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="1">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="5">
+        <v>45751</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="1">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="1">
+        <v>5</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="5">
+        <v>45765</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="5">
+        <v>45754</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="1">
+        <v>5</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" s="5">
+        <v>45754</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="1">
+        <v>5</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="1">
+        <v>5</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="1">
+        <v>5</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="1">
+        <v>5</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="1">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="1">
+        <v>4</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="1">
+        <v>4</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="1">
+        <v>4</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="1">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="1">
+        <v>5</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" s="5">
+        <v>45754</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="1">
+        <v>5</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E67" s="5">
+        <v>45754</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D70" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B73" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" s="1">
+        <v>4</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" s="1">
+        <v>4</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" s="1">
+        <v>4</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B77" s="7"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="1">
+        <v>3</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="1">
+        <v>3</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" s="1">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1">
-        <v>5</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="C82" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D82" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="D84" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>6</v>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A51:F67">
+    <sortCondition descending="1" ref="C51:C67"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
